--- a/GA_bNa_bCa_NaK/Cond_CTRL.xlsx
+++ b/GA_bNa_bCa_NaK/Cond_CTRL.xlsx
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,6 +795,181 @@
         <v>-0.4938860447485216</v>
       </c>
     </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>0.7566570268151136</v>
+      </c>
+      <c r="B12">
+        <v>0.5119212929403949</v>
+      </c>
+      <c r="C12">
+        <v>-0.3709883345354846</v>
+      </c>
+      <c r="D12">
+        <v>-0.1827203422309854</v>
+      </c>
+      <c r="E12">
+        <v>0.04311940843969785</v>
+      </c>
+      <c r="F12">
+        <v>0.8798895555013863</v>
+      </c>
+      <c r="G12">
+        <v>-0.08662040355184927</v>
+      </c>
+      <c r="H12">
+        <v>-0.01658308415403292</v>
+      </c>
+      <c r="I12">
+        <v>-0.1093475330137066</v>
+      </c>
+      <c r="J12">
+        <v>-0.3503920162102487</v>
+      </c>
+      <c r="K12">
+        <v>-0.1736355608019549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>-0.7985272318989111</v>
+      </c>
+      <c r="B13">
+        <v>-0.6170325902835145</v>
+      </c>
+      <c r="C13">
+        <v>-0.2372312202143967</v>
+      </c>
+      <c r="D13">
+        <v>0.06201644335500089</v>
+      </c>
+      <c r="E13">
+        <v>-0.8239963937412582</v>
+      </c>
+      <c r="F13">
+        <v>0.7176870398667468</v>
+      </c>
+      <c r="G13">
+        <v>0.5817486291848808</v>
+      </c>
+      <c r="H13">
+        <v>-0.2681612062147929</v>
+      </c>
+      <c r="I13">
+        <v>0.5085375513039242</v>
+      </c>
+      <c r="J13">
+        <v>-0.9310438530724807</v>
+      </c>
+      <c r="K13">
+        <v>-0.4741602152718305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>0.458446451883198</v>
+      </c>
+      <c r="B14">
+        <v>-0.09377889819874149</v>
+      </c>
+      <c r="C14">
+        <v>-0.449319629792826</v>
+      </c>
+      <c r="D14">
+        <v>-0.1776059041864453</v>
+      </c>
+      <c r="E14">
+        <v>0.5571887918695299</v>
+      </c>
+      <c r="F14">
+        <v>0.4891111533174108</v>
+      </c>
+      <c r="G14">
+        <v>-0.9246336648654516</v>
+      </c>
+      <c r="H14">
+        <v>-0.5235724031080333</v>
+      </c>
+      <c r="I14">
+        <v>-0.6292868235264951</v>
+      </c>
+      <c r="J14">
+        <v>-0.7102875127268674</v>
+      </c>
+      <c r="K14">
+        <v>-0.7165247638893038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>0.5958021645273984</v>
+      </c>
+      <c r="B15">
+        <v>-0.1162715957752732</v>
+      </c>
+      <c r="C15">
+        <v>-0.4323366689023017</v>
+      </c>
+      <c r="D15">
+        <v>-0.180568308191349</v>
+      </c>
+      <c r="E15">
+        <v>0.4775866667647004</v>
+      </c>
+      <c r="F15">
+        <v>0.7161466724153919</v>
+      </c>
+      <c r="G15">
+        <v>0.6265581682887733</v>
+      </c>
+      <c r="H15">
+        <v>-0.536358554299764</v>
+      </c>
+      <c r="I15">
+        <v>0.4455383866420268</v>
+      </c>
+      <c r="J15">
+        <v>0.489416986067738</v>
+      </c>
+      <c r="K15">
+        <v>-0.302953228066741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>-0.6845283162516205</v>
+      </c>
+      <c r="B16">
+        <v>0.3469168821657944</v>
+      </c>
+      <c r="C16">
+        <v>-0.4697931940317401</v>
+      </c>
+      <c r="D16">
+        <v>-0.07738789025813071</v>
+      </c>
+      <c r="E16">
+        <v>0.3079645842607059</v>
+      </c>
+      <c r="F16">
+        <v>0.6258994986271115</v>
+      </c>
+      <c r="G16">
+        <v>0.5406937980155303</v>
+      </c>
+      <c r="H16">
+        <v>-0.2189983170193436</v>
+      </c>
+      <c r="I16">
+        <v>-0.2858247788787053</v>
+      </c>
+      <c r="J16">
+        <v>-0.9872845478957332</v>
+      </c>
+      <c r="K16">
+        <v>0.3017917660185371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GA_bNa_bCa_NaK/Cond_CTRL.xlsx
+++ b/GA_bNa_bCa_NaK/Cond_CTRL.xlsx
@@ -447,527 +447,527 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>-0.4785884501968348</v>
+        <v>0.3322091192478994</v>
       </c>
       <c r="B2">
-        <v>0.1942183442694117</v>
+        <v>1.563933722490146</v>
       </c>
       <c r="C2">
-        <v>-0.1160616804406175</v>
+        <v>0.7654878811852515</v>
       </c>
       <c r="D2">
-        <v>0.4076998974382717</v>
+        <v>2.556818484878759</v>
       </c>
       <c r="E2">
-        <v>0.2097392255244961</v>
+        <v>1.620836565006515</v>
       </c>
       <c r="F2">
-        <v>0.7334665798441476</v>
+        <v>5.413355890161315</v>
       </c>
       <c r="G2">
-        <v>-0.4124218527280838</v>
+        <v>0.386881664144314</v>
       </c>
       <c r="H2">
-        <v>-0.2763754689407407</v>
+        <v>0.5292057216826682</v>
       </c>
       <c r="I2">
-        <v>-0.2606597814481582</v>
+        <v>0.5487066435964404</v>
       </c>
       <c r="J2">
-        <v>0.2494454928312433</v>
+        <v>1.776010351868494</v>
       </c>
       <c r="K2">
-        <v>-0.06630192164897786</v>
+        <v>0.8584165425916872</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>-0.8560127706829529</v>
+        <v>0.1393115836957955</v>
       </c>
       <c r="B3">
-        <v>-0.004115483426945858</v>
+        <v>0.9905685073836955</v>
       </c>
       <c r="C3">
-        <v>-0.2185145957558494</v>
+        <v>0.6046240308171035</v>
       </c>
       <c r="D3">
-        <v>-0.01089776006927023</v>
+        <v>0.9752191930342885</v>
       </c>
       <c r="E3">
-        <v>-0.07092720887202084</v>
+        <v>0.8493228162072339</v>
       </c>
       <c r="F3">
-        <v>0.6562999288863723</v>
+        <v>4.532104643370697</v>
       </c>
       <c r="G3">
-        <v>0.204431367816275</v>
+        <v>1.601147596684429</v>
       </c>
       <c r="H3">
-        <v>-0.2775720861071246</v>
+        <v>0.5277496013125648</v>
       </c>
       <c r="I3">
-        <v>-0.9345272702270129</v>
+        <v>0.116271353958137</v>
       </c>
       <c r="J3">
-        <v>-0.1568174018002688</v>
+        <v>0.6969194708428361</v>
       </c>
       <c r="K3">
-        <v>-0.3576173362008762</v>
+        <v>0.4389172644515463</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>-0.3119954617748223</v>
+        <v>0.4875335846319167</v>
       </c>
       <c r="B4">
-        <v>0.08797016388481808</v>
+        <v>1.224532070784376</v>
       </c>
       <c r="C4">
-        <v>-0.5985881947557283</v>
+        <v>0.2520065363055241</v>
       </c>
       <c r="D4">
-        <v>-0.0823303877557932</v>
+        <v>0.8273125496066837</v>
       </c>
       <c r="E4">
-        <v>0.1499107957762235</v>
+        <v>1.412247438759806</v>
       </c>
       <c r="F4">
-        <v>0.4914323823732317</v>
+        <v>3.100504616831975</v>
       </c>
       <c r="G4">
-        <v>0.7982865955074017</v>
+        <v>6.284729579300754</v>
       </c>
       <c r="H4">
-        <v>-0.7477607141738939</v>
+        <v>0.1787472157803365</v>
       </c>
       <c r="I4">
-        <v>0.2818819194604569</v>
+        <v>1.913735527788143</v>
       </c>
       <c r="J4">
-        <v>-0.5907708497683357</v>
+        <v>0.2565837512549758</v>
       </c>
       <c r="K4">
-        <v>0.1872766771241267</v>
+        <v>1.539134868717328</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>-0.1823173000947209</v>
+        <v>0.6571775211384079</v>
       </c>
       <c r="B5">
-        <v>0.3576344927902641</v>
+        <v>2.278423717364808</v>
       </c>
       <c r="C5">
-        <v>-0.3416560492326802</v>
+        <v>0.4553485424606332</v>
       </c>
       <c r="D5">
-        <v>0.3824002816308021</v>
+        <v>2.412127620305901</v>
       </c>
       <c r="E5">
-        <v>0.4417029773750174</v>
+        <v>2.765049926011028</v>
       </c>
       <c r="F5">
-        <v>0.7581393722200443</v>
+        <v>5.729798801224037</v>
       </c>
       <c r="G5">
-        <v>0.5354100143109257</v>
+        <v>3.430915439640804</v>
       </c>
       <c r="H5">
-        <v>-0.4005759816883445</v>
+        <v>0.3975795321395514</v>
       </c>
       <c r="I5">
-        <v>0.5104314638429864</v>
+        <v>3.239153012195211</v>
       </c>
       <c r="J5">
-        <v>-0.1962887101751981</v>
+        <v>0.636372332822542</v>
       </c>
       <c r="K5">
-        <v>0.2452729281267154</v>
+        <v>1.759028711096961</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.2682538025905756</v>
+        <v>1.854615147692891</v>
       </c>
       <c r="B6">
-        <v>0.2133079916437658</v>
+        <v>1.634210481476953</v>
       </c>
       <c r="C6">
-        <v>-0.1820737524448222</v>
+        <v>0.6575461625423142</v>
       </c>
       <c r="D6">
-        <v>0.2728195639192186</v>
+        <v>1.874215666971725</v>
       </c>
       <c r="E6">
-        <v>0.3444549926410687</v>
+        <v>2.210319181816895</v>
       </c>
       <c r="F6">
-        <v>0.5049559798626437</v>
+        <v>3.19857088575655</v>
       </c>
       <c r="G6">
-        <v>-0.7690157224596645</v>
+        <v>0.1702096887455273</v>
       </c>
       <c r="H6">
-        <v>-0.6388855236177596</v>
+        <v>0.229675397341001</v>
       </c>
       <c r="I6">
-        <v>-0.1261610447344248</v>
+        <v>0.7478921163247956</v>
       </c>
       <c r="J6">
-        <v>-0.6024278856438825</v>
+        <v>0.249788312681757</v>
       </c>
       <c r="K6">
-        <v>-0.6738019800883032</v>
+        <v>0.2119327238547077</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>-0.3319586598019814</v>
+        <v>0.4656304144577315</v>
       </c>
       <c r="B7">
-        <v>0.07835569275275386</v>
+        <v>1.19772107864239</v>
       </c>
       <c r="C7">
-        <v>-0.1469558869120611</v>
+        <v>0.7129254412365559</v>
       </c>
       <c r="D7">
-        <v>0.4022133801065543</v>
+        <v>2.524720928457763</v>
       </c>
       <c r="E7">
-        <v>0.5451021486815992</v>
+        <v>3.508343826117752</v>
       </c>
       <c r="F7">
-        <v>0.6185346350300798</v>
+        <v>4.154651833122602</v>
       </c>
       <c r="G7">
-        <v>-0.3618595658097774</v>
+        <v>0.4346507508438204</v>
       </c>
       <c r="H7">
-        <v>-0.5610623632115298</v>
+        <v>0.274749959317091</v>
       </c>
       <c r="I7">
-        <v>0.3447843080643659</v>
+        <v>2.211995851148349</v>
       </c>
       <c r="J7">
-        <v>-0.8436174072429298</v>
+        <v>0.1433450144518094</v>
       </c>
       <c r="K7">
-        <v>-0.3081442583016591</v>
+        <v>0.4918761235192182</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>-0.4114107763539806</v>
+        <v>0.3877834085040391</v>
       </c>
       <c r="B8">
-        <v>-0.08829938337250241</v>
+        <v>0.8160196496340368</v>
       </c>
       <c r="C8">
-        <v>-0.2027576576742398</v>
+        <v>0.6269636214483054</v>
       </c>
       <c r="D8">
-        <v>0.1226044054247086</v>
+        <v>1.326185897680212</v>
       </c>
       <c r="E8">
-        <v>0.3205321045537354</v>
+        <v>2.091857538748745</v>
       </c>
       <c r="F8">
-        <v>0.5906748265546948</v>
+        <v>3.896501309731564</v>
       </c>
       <c r="G8">
-        <v>-0.272241015893816</v>
+        <v>0.5342677800740046</v>
       </c>
       <c r="H8">
-        <v>-0.3440530407774995</v>
+        <v>0.4528422704905159</v>
       </c>
       <c r="I8">
-        <v>0.03742716921864853</v>
+        <v>1.090001684786805</v>
       </c>
       <c r="J8">
-        <v>-0.3336797232467861</v>
+        <v>0.4637888214315209</v>
       </c>
       <c r="K8">
-        <v>-0.3678442013479639</v>
+        <v>0.4287022853243742</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.1449696210537667</v>
+        <v>1.396270688353392</v>
       </c>
       <c r="B9">
-        <v>0.05187090545483534</v>
+        <v>1.126862445200556</v>
       </c>
       <c r="C9">
-        <v>-0.2746580238929393</v>
+        <v>0.5313026427130443</v>
       </c>
       <c r="D9">
-        <v>-0.3228300810255083</v>
+        <v>0.4755212386139509</v>
       </c>
       <c r="E9">
-        <v>-0.01916463365330982</v>
+        <v>0.9568312840662039</v>
       </c>
       <c r="F9">
-        <v>0.6240578406962688</v>
+        <v>4.207826658031182</v>
       </c>
       <c r="G9">
-        <v>-0.1327614260847392</v>
+        <v>0.7366116342055354</v>
       </c>
       <c r="H9">
-        <v>-0.2196706250340999</v>
+        <v>0.6030167489693032</v>
       </c>
       <c r="I9">
-        <v>-0.9171821891818716</v>
+        <v>0.1210090386764613</v>
       </c>
       <c r="J9">
-        <v>-0.9659535367075747</v>
+        <v>0.1081549655438703</v>
       </c>
       <c r="K9">
-        <v>-0.4802064083680763</v>
+        <v>0.3309737812496496</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>-0.02284320352069439</v>
+        <v>0.948760939500958</v>
       </c>
       <c r="B10">
-        <v>0.2349724758916724</v>
+        <v>1.717799515412262</v>
       </c>
       <c r="C10">
-        <v>-0.0867709957822226</v>
+        <v>0.8188964798132727</v>
       </c>
       <c r="D10">
-        <v>0.3538326074712734</v>
+        <v>2.258565071181752</v>
       </c>
       <c r="E10">
-        <v>0.5001058622505556</v>
+        <v>3.16304858093294</v>
       </c>
       <c r="F10">
-        <v>0.3932633528501596</v>
+        <v>2.473223434154289</v>
       </c>
       <c r="G10">
-        <v>-0.7439425966027898</v>
+        <v>0.1803256072655724</v>
       </c>
       <c r="H10">
-        <v>-0.7975185063801582</v>
+        <v>0.1593974955983161</v>
       </c>
       <c r="I10">
-        <v>-0.1314855323428336</v>
+        <v>0.7387788735329825</v>
       </c>
       <c r="J10">
-        <v>-0.8784604953056033</v>
+        <v>0.132293804084467</v>
       </c>
       <c r="K10">
-        <v>-0.3901462432215269</v>
+        <v>0.4072431206976256</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>-0.555868084502842</v>
+        <v>0.2780557724616579</v>
       </c>
       <c r="B11">
-        <v>-0.05265966412272825</v>
+        <v>0.8858095045804421</v>
       </c>
       <c r="C11">
-        <v>-0.1022939065159941</v>
+        <v>0.7901437213975713</v>
       </c>
       <c r="D11">
-        <v>0.3881121049995677</v>
+        <v>2.444061360013141</v>
       </c>
       <c r="E11">
-        <v>0.3107869606089177</v>
+        <v>2.045441017237273</v>
       </c>
       <c r="F11">
-        <v>0.8019348856197865</v>
+        <v>6.337746814070852</v>
       </c>
       <c r="G11">
-        <v>-0.3294920700706394</v>
+        <v>0.4682825018236121</v>
       </c>
       <c r="H11">
-        <v>-0.2522782033335523</v>
+        <v>0.5593991429613246</v>
       </c>
       <c r="I11">
-        <v>0.5790877541410597</v>
+        <v>3.793916376258919</v>
       </c>
       <c r="J11">
-        <v>-0.4072644359279021</v>
+        <v>0.3915034234777385</v>
       </c>
       <c r="K11">
-        <v>-0.4938860447485216</v>
+        <v>0.3207110733231073</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>0.7566570268151136</v>
+        <v>5.710275038970495</v>
       </c>
       <c r="B12">
-        <v>0.5119212929403949</v>
+        <v>3.250283872496476</v>
       </c>
       <c r="C12">
-        <v>-0.3709883345354846</v>
+        <v>0.425609845169085</v>
       </c>
       <c r="D12">
-        <v>-0.1827203422309854</v>
+        <v>0.656567917802101</v>
       </c>
       <c r="E12">
-        <v>0.04311940843969785</v>
+        <v>1.104382225949426</v>
       </c>
       <c r="F12">
-        <v>0.8798895555013863</v>
+        <v>7.583846873198535</v>
       </c>
       <c r="G12">
-        <v>-0.08662040355184927</v>
+        <v>0.8191804825707287</v>
       </c>
       <c r="H12">
-        <v>-0.01658308415403292</v>
+        <v>0.9625358542271226</v>
       </c>
       <c r="I12">
-        <v>-0.1093475330137066</v>
+        <v>0.7774141963017468</v>
       </c>
       <c r="J12">
-        <v>-0.3503920162102487</v>
+        <v>0.4462805748211987</v>
       </c>
       <c r="K12">
-        <v>-0.1736355608019549</v>
+        <v>0.6704469805281155</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>-0.7985272318989111</v>
+        <v>0.1590276964343865</v>
       </c>
       <c r="B13">
-        <v>-0.6170325902835145</v>
+        <v>0.2415279580473046</v>
       </c>
       <c r="C13">
-        <v>-0.2372312202143967</v>
+        <v>0.5791202882505618</v>
       </c>
       <c r="D13">
-        <v>0.06201644335500089</v>
+        <v>1.153496930953609</v>
       </c>
       <c r="E13">
-        <v>-0.8239963937412582</v>
+        <v>0.149969728851347</v>
       </c>
       <c r="F13">
-        <v>0.7176870398667468</v>
+        <v>5.220198768530802</v>
       </c>
       <c r="G13">
-        <v>0.5817486291848808</v>
+        <v>3.817232644337236</v>
       </c>
       <c r="H13">
-        <v>-0.2681612062147929</v>
+        <v>0.5393103981760735</v>
       </c>
       <c r="I13">
-        <v>0.5085375513039242</v>
+        <v>3.225058162149373</v>
       </c>
       <c r="J13">
-        <v>-0.9310438530724807</v>
+        <v>0.1172077008591579</v>
       </c>
       <c r="K13">
-        <v>-0.4741602152718305</v>
+        <v>0.3356137803589865</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>0.458446451883198</v>
+        <v>2.873733243060324</v>
       </c>
       <c r="B14">
-        <v>-0.09377889819874149</v>
+        <v>0.8057885683536703</v>
       </c>
       <c r="C14">
-        <v>-0.449319629792826</v>
+        <v>0.355369679173576</v>
       </c>
       <c r="D14">
-        <v>-0.1776059041864453</v>
+        <v>0.6643456502074501</v>
       </c>
       <c r="E14">
-        <v>0.5571887918695299</v>
+        <v>3.607354240017855</v>
       </c>
       <c r="F14">
-        <v>0.4891111533174108</v>
+        <v>3.083977162277252</v>
       </c>
       <c r="G14">
-        <v>-0.9246336648654516</v>
+        <v>0.1189505173186632</v>
       </c>
       <c r="H14">
-        <v>-0.5235724031080333</v>
+        <v>0.2995212206043792</v>
       </c>
       <c r="I14">
-        <v>-0.6292868235264951</v>
+        <v>0.2348081552054812</v>
       </c>
       <c r="J14">
-        <v>-0.7102875127268674</v>
+        <v>0.1948554185913231</v>
       </c>
       <c r="K14">
-        <v>-0.7165247638893038</v>
+        <v>0.1920769434507753</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>0.5958021645273984</v>
+        <v>3.942776546738842</v>
       </c>
       <c r="B15">
-        <v>-0.1162715957752732</v>
+        <v>0.7651179736140421</v>
       </c>
       <c r="C15">
-        <v>-0.4323366689023017</v>
+        <v>0.369541596817566</v>
       </c>
       <c r="D15">
-        <v>-0.180568308191349</v>
+        <v>0.6598294445480946</v>
       </c>
       <c r="E15">
-        <v>0.4775866667647004</v>
+        <v>3.003216675779813</v>
       </c>
       <c r="F15">
-        <v>0.7161466724153919</v>
+        <v>5.201716422127665</v>
       </c>
       <c r="G15">
-        <v>0.6265581682887733</v>
+        <v>4.232121898757436</v>
       </c>
       <c r="H15">
-        <v>-0.536358554299764</v>
+        <v>0.2908315016542459</v>
       </c>
       <c r="I15">
-        <v>0.4455383866420268</v>
+        <v>2.789577212015944</v>
       </c>
       <c r="J15">
-        <v>0.489416986067738</v>
+        <v>3.086149682149536</v>
       </c>
       <c r="K15">
-        <v>-0.302953228066741</v>
+        <v>0.4977906923359867</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>-0.6845283162516205</v>
+        <v>0.2067624567205819</v>
       </c>
       <c r="B16">
-        <v>0.3469168821657944</v>
+        <v>2.222884421233839</v>
       </c>
       <c r="C16">
-        <v>-0.4697931940317401</v>
+        <v>0.3390055481987758</v>
       </c>
       <c r="D16">
-        <v>-0.07738789025813071</v>
+        <v>0.8367815765318943</v>
       </c>
       <c r="E16">
-        <v>0.3079645842607059</v>
+        <v>2.032191283545403</v>
       </c>
       <c r="F16">
-        <v>0.6258994986271115</v>
+        <v>4.225708145856856</v>
       </c>
       <c r="G16">
-        <v>0.5406937980155303</v>
+        <v>3.472912153044959</v>
       </c>
       <c r="H16">
-        <v>-0.2189983170193436</v>
+        <v>0.6039509698063703</v>
       </c>
       <c r="I16">
-        <v>-0.2858247788787053</v>
+        <v>0.5178157085350703</v>
       </c>
       <c r="J16">
-        <v>-0.9872845478957332</v>
+        <v>0.1029711236956436</v>
       </c>
       <c r="K16">
-        <v>0.3017917660185371</v>
+        <v>2.003511160585072</v>
       </c>
     </row>
   </sheetData>
